--- a/Benefit/Benefit_Total.xlsx
+++ b/Benefit/Benefit_Total.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/candiceyu/Documents/PSTAT296B/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/candiceyu/Documents/GitHub/296/Benefit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0273357-983A-3F4C-BDA9-2C42A807ACBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FADC68-434B-8B4F-A87C-9806CFD9F53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980"/>
+    <workbookView xWindow="1820" yWindow="2000" windowWidth="35660" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Benefit_Total" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Benefit_Total!$A$1:$BX$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -649,8 +652,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -781,6 +784,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1083,7 +1094,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1126,11 +1137,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1164,6 +1177,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1483,14 +1497,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BX120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="19" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="48" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="40.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2178,7 +2230,7 @@
       <c r="BW3" t="s">
         <v>77</v>
       </c>
-      <c r="BX3" t="s">
+      <c r="BX3" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -29093,6 +29145,10 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:BX1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <hyperlinks>
+    <hyperlink ref="BX3" r:id="rId1" display="https://q1medicare.com/MedicareAdvantage-2019C-MedicareHealthPlanBenefits.php?state=CT&amp;source=2019MAFinder&amp;ZIP=&amp;countyCode=9011&amp;contractId=H0712&amp;planId=020&amp;segmentId=0&amp;plan=WellCare%20Rx%20(HMO-POS)%20-%20H0712-020-0&amp;utm_source=partd&amp;utm_medium=mafinder&amp;utm_campaign=planname" xr:uid="{C9A8CCB2-C1DB-3342-88FC-7521C9A334B7}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>